--- a/Historical Stats - Money League.xlsx
+++ b/Historical Stats - Money League.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Fantasy Sports\Money League\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Fantasy Sports\Erik Money League\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3AE4F9-4783-413A-82B0-071262880691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3B7625-ACFC-4F23-9853-BE655B9A53DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00571521-F8B7-4EE5-BF3F-816C35BB5F68}"/>
   </bookViews>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -490,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C732AA-F07A-4951-BC9E-EBED592A7799}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2709,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ref="J67:J113" si="1">IF(C67=1,1,0)</f>
+        <f t="shared" ref="J67:J125" si="1">IF(C67=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4227,6 +4235,402 @@
         <v>0</v>
       </c>
       <c r="J113" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1">
+        <v>1874.4</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1833.72</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>9</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1">
+        <v>10</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2131.2199999999998</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1822.68</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1">
+        <v>7</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1">
+        <v>8</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2029.34</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1887.08</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="H116" s="1">
+        <v>12</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" s="1">
+        <v>4</v>
+      </c>
+      <c r="D117" s="1">
+        <v>11</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2230.96</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1814.1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1</v>
+      </c>
+      <c r="H117" s="1">
+        <v>8</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5</v>
+      </c>
+      <c r="D118" s="1">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1980.48</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1788.14</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="1">
+        <v>6</v>
+      </c>
+      <c r="D119" s="1">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1991.1</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1931.18</v>
+      </c>
+      <c r="G119" s="1">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1">
+        <v>10</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="1">
+        <v>7</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1656.64</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1876.48</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>5</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="1">
+        <v>8</v>
+      </c>
+      <c r="D121" s="1">
+        <v>7</v>
+      </c>
+      <c r="E121" s="1">
+        <v>1897.58</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1875.08</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>11</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" s="1">
+        <v>9</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1703</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1982.58</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>4</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="1">
+        <v>10</v>
+      </c>
+      <c r="D123" s="1">
+        <v>6</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1634.9</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1847.78</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1">
+        <v>3</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="1">
+        <v>11</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1655.42</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1955.62</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>6</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="1">
+        <v>12</v>
+      </c>
+      <c r="D125" s="1">
+        <v>4</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1720.02</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1890.62</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>2</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Historical Stats - Money League.xlsx
+++ b/Historical Stats - Money League.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Fantasy Sports\Erik Money League\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3B7625-ACFC-4F23-9853-BE655B9A53DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF516B-E9B1-4914-9DE8-FFE27AA8A74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00571521-F8B7-4EE5-BF3F-816C35BB5F68}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00571521-F8B7-4EE5-BF3F-816C35BB5F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -498,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C732AA-F07A-4951-BC9E-EBED592A7799}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2717,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ref="J67:J125" si="1">IF(C67=1,1,0)</f>
+        <f t="shared" ref="J67:J137" si="1">IF(C67=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4631,6 +4623,330 @@
         <v>0</v>
       </c>
       <c r="J125" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1894.1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1747.52</v>
+      </c>
+      <c r="G126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4</v>
+      </c>
+      <c r="D127" s="1">
+        <v>7</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1926.56</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1853.62</v>
+      </c>
+      <c r="G127" s="1">
+        <v>1</v>
+      </c>
+      <c r="J127" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="1">
+        <v>9</v>
+      </c>
+      <c r="D128" s="1">
+        <v>6</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1669.2</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1772.42</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="1">
+        <v>8</v>
+      </c>
+      <c r="D129" s="1">
+        <v>7</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1733.16</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1712.72</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1">
+        <v>10</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1660.82</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1734.22</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="1">
+        <v>7</v>
+      </c>
+      <c r="D131" s="1">
+        <v>7</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1719.06</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1691.04</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="1">
+        <v>6</v>
+      </c>
+      <c r="D132" s="1">
+        <v>8</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1736.96</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1801.26</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1</v>
+      </c>
+      <c r="J132" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="1">
+        <v>12</v>
+      </c>
+      <c r="D133" s="1">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1819.48</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1815.72</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" s="1">
+        <v>5</v>
+      </c>
+      <c r="D134" s="1">
+        <v>9</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1861.72</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1850.76</v>
+      </c>
+      <c r="G134" s="1">
+        <v>1</v>
+      </c>
+      <c r="J134" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D135" s="1">
+        <v>11</v>
+      </c>
+      <c r="E135" s="1">
+        <v>2007.14</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1773.96</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1</v>
+      </c>
+      <c r="J135" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D136" s="1">
+        <v>11</v>
+      </c>
+      <c r="E136" s="1">
+        <v>2077.1999999999998</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1815.92</v>
+      </c>
+      <c r="G136" s="1">
+        <v>1</v>
+      </c>
+      <c r="J136" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" s="1">
+        <v>11</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1495.16</v>
+      </c>
+      <c r="F137" s="1">
+        <v>2031.4</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Historical Stats - Money League.xlsx
+++ b/Historical Stats - Money League.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Fantasy Sports\Erik Money League\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CF516B-E9B1-4914-9DE8-FFE27AA8A74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BB8180-31A2-4F52-A905-91B6B70A23AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00571521-F8B7-4EE5-BF3F-816C35BB5F68}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="12360" xr2:uid="{00571521-F8B7-4EE5-BF3F-816C35BB5F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C732AA-F07A-4951-BC9E-EBED592A7799}">
   <dimension ref="A1:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>22</v>
@@ -4649,6 +4649,12 @@
       <c r="G126" s="1">
         <v>1</v>
       </c>
+      <c r="H126" s="1">
+        <v>12</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
       <c r="J126" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4656,7 +4662,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>7</v>
@@ -4676,6 +4682,12 @@
       <c r="G127" s="1">
         <v>1</v>
       </c>
+      <c r="H127" s="1">
+        <v>7</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
       <c r="J127" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4683,7 +4695,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>14</v>
@@ -4703,6 +4715,12 @@
       <c r="G128" s="1">
         <v>0</v>
       </c>
+      <c r="H128" s="1">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
       <c r="J128" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4710,7 +4728,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>30</v>
@@ -4730,6 +4748,12 @@
       <c r="G129" s="1">
         <v>0</v>
       </c>
+      <c r="H129" s="1">
+        <v>5</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
       <c r="J129" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4737,7 +4761,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>9</v>
@@ -4757,6 +4781,12 @@
       <c r="G130" s="1">
         <v>0</v>
       </c>
+      <c r="H130" s="1">
+        <v>9</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
       <c r="J130" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4764,7 +4794,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>29</v>
@@ -4784,6 +4814,12 @@
       <c r="G131" s="1">
         <v>0</v>
       </c>
+      <c r="H131" s="1">
+        <v>11</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
       <c r="J131" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4791,7 +4827,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>12</v>
@@ -4811,6 +4847,12 @@
       <c r="G132" s="1">
         <v>1</v>
       </c>
+      <c r="H132" s="1">
+        <v>3</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
       <c r="J132" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4818,7 +4860,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>31</v>
@@ -4838,6 +4880,12 @@
       <c r="G133" s="1">
         <v>0</v>
       </c>
+      <c r="H133" s="1">
+        <v>10</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
       <c r="J133" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4845,7 +4893,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>32</v>
@@ -4865,6 +4913,12 @@
       <c r="G134" s="1">
         <v>1</v>
       </c>
+      <c r="H134" s="1">
+        <v>6</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
       <c r="J134" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4872,7 +4926,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>13</v>
@@ -4892,6 +4946,12 @@
       <c r="G135" s="1">
         <v>1</v>
       </c>
+      <c r="H135" s="1">
+        <v>4</v>
+      </c>
+      <c r="I135" s="1">
+        <v>1</v>
+      </c>
       <c r="J135" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4899,7 +4959,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>11</v>
@@ -4919,6 +4979,12 @@
       <c r="G136" s="1">
         <v>1</v>
       </c>
+      <c r="H136" s="1">
+        <v>8</v>
+      </c>
+      <c r="I136" s="1">
+        <v>1</v>
+      </c>
       <c r="J136" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4926,7 +4992,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>34</v>
@@ -4944,6 +5010,12 @@
         <v>2031.4</v>
       </c>
       <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
+      <c r="I137" s="1">
         <v>0</v>
       </c>
       <c r="J137" s="1">

--- a/Historical Stats - Money League.xlsx
+++ b/Historical Stats - Money League.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\Fantasy Sports\Erik Money League\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BB8180-31A2-4F52-A905-91B6B70A23AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EFD33D-77C4-45E7-A897-D3A07ABE0B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="12360" xr2:uid="{00571521-F8B7-4EE5-BF3F-816C35BB5F68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00571521-F8B7-4EE5-BF3F-816C35BB5F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C732AA-F07A-4951-BC9E-EBED592A7799}">
-  <dimension ref="A1:J137"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
+    <sheetView tabSelected="1" topLeftCell="B132" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ref="J67:J137" si="1">IF(C67=1,1,0)</f>
+        <f t="shared" ref="J67:J149" si="1">IF(C67=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5019,6 +5019,402 @@
         <v>0</v>
       </c>
       <c r="J137" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>13</v>
+      </c>
+      <c r="E138" s="1">
+        <v>2157.94</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1686.66</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1</v>
+      </c>
+      <c r="H138" s="1">
+        <v>11</v>
+      </c>
+      <c r="I138" s="1">
+        <v>1</v>
+      </c>
+      <c r="J138" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1">
+        <v>9</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1776.48</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1703.04</v>
+      </c>
+      <c r="G139" s="1">
+        <v>1</v>
+      </c>
+      <c r="H139" s="1">
+        <v>3</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1">
+        <v>8</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1812.62</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1787.1</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1</v>
+      </c>
+      <c r="H140" s="1">
+        <v>9</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="1">
+        <v>4</v>
+      </c>
+      <c r="D141" s="1">
+        <v>9</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1837.76</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1779.74</v>
+      </c>
+      <c r="G141" s="1">
+        <v>1</v>
+      </c>
+      <c r="H141" s="1">
+        <v>4</v>
+      </c>
+      <c r="I141" s="1">
+        <v>1</v>
+      </c>
+      <c r="J141" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1925.24</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1918.22</v>
+      </c>
+      <c r="G142" s="1">
+        <v>1</v>
+      </c>
+      <c r="H142" s="1">
+        <v>8</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" s="1">
+        <v>6</v>
+      </c>
+      <c r="D143" s="1">
+        <v>7</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1823.16</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1873.2</v>
+      </c>
+      <c r="G143" s="1">
+        <v>1</v>
+      </c>
+      <c r="H143" s="1">
+        <v>12</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="1">
+        <v>7</v>
+      </c>
+      <c r="D144" s="1">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1839.92</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1790.86</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+      <c r="H144" s="1">
+        <v>10</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="1">
+        <v>8</v>
+      </c>
+      <c r="D145" s="1">
+        <v>6</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1842.76</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1886.36</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="1">
+        <v>7</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" s="1">
+        <v>9</v>
+      </c>
+      <c r="D146" s="1">
+        <v>6</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1831.6</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1829.2</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
+        <v>6</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" s="1">
+        <v>10</v>
+      </c>
+      <c r="D147" s="1">
+        <v>5</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1710.6</v>
+      </c>
+      <c r="F147" s="1">
+        <v>2018.88</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1">
+        <v>2</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="1">
+        <v>11</v>
+      </c>
+      <c r="D148" s="1">
+        <v>4</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1852.38</v>
+      </c>
+      <c r="F148" s="1">
+        <v>2062.16</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1">
+        <v>5</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="1">
+        <v>12</v>
+      </c>
+      <c r="D149" s="1">
+        <v>5</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1723.32</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1798.36</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+      <c r="H149" s="1">
+        <v>1</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+      <c r="J149" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
